--- a/Attendance_J.xlsx
+++ b/Attendance_J.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonou\Dropbox\git\math110\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A94DE1-DE62-41BE-A664-A516D2DCBDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA6CEE-7344-45FE-B83C-44FF1B851198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance Sheet - 101 (2)" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>First Name</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>Wakeham</t>
+  </si>
+  <si>
+    <t>Assign 1</t>
+  </si>
+  <si>
+    <t>Assign 2</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -804,32 +810,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -913,7 +893,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,22 +907,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -998,14 +975,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1069,7 +1048,55 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1149,13 +1176,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEFEF233-0463-4B5E-850D-3FB669CEEDDE}" name="Table1" displayName="Table1" ref="A2:D30" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A2:D30" xr:uid="{FEFEF233-0463-4B5E-850D-3FB669CEEDDE}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A14C81B9-A9F1-45D0-97AC-F7BB6CA08F11}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{BFBF0083-E846-49DB-97E9-A9AFB2319FD3}" name="First Name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{4C4F2094-32AA-413C-A689-B83F7B1024AF}" name="Last Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{80D7F214-AE27-4E12-A519-B9FA4BBF3523}" name="Signature" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEFEF233-0463-4B5E-850D-3FB669CEEDDE}" name="Table1" displayName="Table1" ref="A2:F30" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A2:F30" xr:uid="{FEFEF233-0463-4B5E-850D-3FB669CEEDDE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A14C81B9-A9F1-45D0-97AC-F7BB6CA08F11}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BFBF0083-E846-49DB-97E9-A9AFB2319FD3}" name="First Name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4C4F2094-32AA-413C-A689-B83F7B1024AF}" name="Last Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{80D7F214-AE27-4E12-A519-B9FA4BBF3523}" name="Signature" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7128EF60-C545-4CD8-A35C-208B33C44A69}" name="Assign 1" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{754BE668-778C-492B-B5BF-EE21959AE4FB}" name="Assign 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1448,45 +1477,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="6.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="E2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1495,10 +1532,12 @@
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1507,10 +1546,12 @@
       <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1519,10 +1560,12 @@
       <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1531,10 +1574,12 @@
       <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1543,10 +1588,12 @@
       <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1555,10 +1602,12 @@
       <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1567,10 +1616,12 @@
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1579,10 +1630,12 @@
       <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1591,10 +1644,12 @@
       <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1603,10 +1658,12 @@
       <c r="C12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1615,10 +1672,12 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1627,10 +1686,12 @@
       <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1639,10 +1700,12 @@
       <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1651,10 +1714,12 @@
       <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1663,10 +1728,12 @@
       <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1675,10 +1742,12 @@
       <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1687,10 +1756,12 @@
       <c r="C19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1699,10 +1770,12 @@
       <c r="C20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1711,10 +1784,12 @@
       <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1723,10 +1798,12 @@
       <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1735,10 +1812,12 @@
       <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1747,10 +1826,12 @@
       <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1759,10 +1840,12 @@
       <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1771,10 +1854,12 @@
       <c r="C26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1783,10 +1868,12 @@
       <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1795,10 +1882,12 @@
       <c r="C28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1807,10 +1896,12 @@
       <c r="C29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1819,7 +1910,9 @@
       <c r="C30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
